--- a/data/trans_dic/P15_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con nadie de su entorno con COVID-19</t>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,42%</t>
+          <t>55,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,89%</t>
+          <t>59,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>96,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>55,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,63; 92,97</t>
+          <t>84,3; 98,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,96; 97,58</t>
+          <t>90,25; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46,32; 73,2</t>
+          <t>27,07; 74,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,27; 71,92</t>
+          <t>39,87; 82,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,86; 95,44</t>
+          <t>92,36; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,45; 96,74</t>
+          <t>87,51; 98,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,04; 86,39</t>
+          <t>65,53; 87,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,0; 75,6</t>
+          <t>37,45; 65,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,07; 92,62</t>
+          <t>90,41; 99,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>89,38; 96,16</t>
+          <t>91,79; 99,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61,72; 78,5</t>
+          <t>47,95; 78,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 70,47</t>
+          <t>42,2; 71,21</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,72%</t>
+          <t>73,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>86,14%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>57,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>36,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>68,52; 79,35</t>
+          <t>62,68; 77,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,99; 88,03</t>
+          <t>78,25; 89,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,95; 64,82</t>
+          <t>48,29; 65,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 46,22</t>
+          <t>21,53; 41,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,72; 85,09</t>
+          <t>69,75; 82,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,4; 91,48</t>
+          <t>82,77; 91,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,9; 64,41</t>
+          <t>51,09; 65,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,89; 50,74</t>
+          <t>35,65; 50,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,4; 81,01</t>
+          <t>68,8; 78,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82,82; 88,58</t>
+          <t>82,37; 89,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>53,21; 62,41</t>
+          <t>53,41; 63,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,22; 46,21</t>
+          <t>30,62; 42,5</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,11%</t>
+          <t>72,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>78,35%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>67,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>77,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67,99%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>77,53%</t>
+          <t>77,83%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>29,35%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,82; 76,43</t>
+          <t>63,66; 79,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,49; 82,96</t>
+          <t>70,61; 84,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,21; 51,87</t>
+          <t>34,66; 53,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,45; 34,68</t>
+          <t>19,57; 37,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,17; 71,86</t>
+          <t>59,67; 75,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>72,5; 82,67</t>
+          <t>70,72; 83,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,69; 51,45</t>
+          <t>36,71; 52,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,6; 34,58</t>
+          <t>23,44; 38,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,53; 71,89</t>
+          <t>64,29; 74,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>72,28; 81,29</t>
+          <t>73,1; 82,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,17; 48,99</t>
+          <t>39,01; 51,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 32,13</t>
+          <t>24,22; 35,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>77,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>84,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,93; 78,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,71; 86,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,23; 58,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,64; 44,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,66; 80,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,78; 88,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,87; 61,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,02; 47,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,84; 78,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,42; 86,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,81; 58,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,8; 44,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74,33%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84,27%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51,94%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>76,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>84,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55,78%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39,21%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>75,24%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>84,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>53,95%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68,82; 78,88</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79,86; 88,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44,62; 58,7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>27,05; 42,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71,71; 80,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>80,74; 87,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50,72; 60,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34,51; 44,44</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71,9; 78,39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>81,74; 87,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>49,96; 58,11</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,62; 41,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con nadie de su entorno con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97053</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126396</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58352</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67600</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>116045</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>136155</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>90580</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>63256</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>213098</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>262550</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>148932</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>130856</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>87126; 101814</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>116322; 128885</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28553; 78113</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>45508; 94376</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>108810; 117805</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>124684; 140471</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75692; 101425</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>45832; 79829</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>199940; 219185</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>249079; 269249</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>105955; 172636</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>99819; 168428</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>258243</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>363809</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>214329</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>119844</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>299794</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>408480</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>223967</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>159316</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>558037</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>772289</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>438296</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>279160</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>229412; 285038</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>336069; 386402</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>181687; 244936</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>86016; 167001</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>272486; 320729</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>384432; 427124</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>194601; 248777</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>133775; 187977</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>520589; 591759</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>736315; 801237</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>404404; 482191</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>237222; 329259</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>206074</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>260814</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>124167</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>75984</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>244130</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>331727</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>154570</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>100950</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>450204</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>592541</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>278737</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>176933</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>182025; 227874</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>235052; 282916</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97863; 152167</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53881; 102281</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>214592; 271534</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>302975; 358474</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>126538; 182000</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76749; 124712</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>415023; 482492</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>556516; 628731</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>244596; 321369</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>145990; 212520</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>528.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>561370</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>751018</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>396848</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>263428</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>659969</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>876362</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>469116</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>323521</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1221339</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1627381</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>865965</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>586949</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>519773; 595751</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>711768; 786868</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>340916; 448494</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>213451; 332852</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>622448; 694822</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>835892; 910558</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>426544; 512883</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>284737; 366625</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1167152; 1272600</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1574814; 1676664</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>801957; 932690</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>526518; 668301</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>